--- a/form-files/tables/Ethiopia_members/forms/Ethiopia_Section2_other_info/Ethiopia_Section2_other_info.xlsx
+++ b/form-files/tables/Ethiopia_members/forms/Ethiopia_Section2_other_info/Ethiopia_Section2_other_info.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23515"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="17060" yWindow="-30700" windowWidth="18320" windowHeight="15840" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="6" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="212">
   <si>
     <t>setting_name</t>
   </si>
@@ -361,9 +361,6 @@
     <t>religion</t>
   </si>
   <si>
-    <t>Other Info</t>
-  </si>
-  <si>
     <t>household_id</t>
   </si>
   <si>
@@ -455,6 +452,213 @@
   </si>
   <si>
     <t>finalize</t>
+  </si>
+  <si>
+    <t>primary_occupation</t>
+  </si>
+  <si>
+    <t>is_smoker</t>
+  </si>
+  <si>
+    <t>smoked_years_ago</t>
+  </si>
+  <si>
+    <t>began_smoke_age</t>
+  </si>
+  <si>
+    <t>number_cigarettes</t>
+  </si>
+  <si>
+    <t>smokes_in_house</t>
+  </si>
+  <si>
+    <t>hours_collecting</t>
+  </si>
+  <si>
+    <t>hours_fuel_materials</t>
+  </si>
+  <si>
+    <t>hours_fuel_sale</t>
+  </si>
+  <si>
+    <t>hours_fuel_purchase</t>
+  </si>
+  <si>
+    <t>hours_spent_wood</t>
+  </si>
+  <si>
+    <t>hours_spent_cooking</t>
+  </si>
+  <si>
+    <t>hours_spent_collecting_water</t>
+  </si>
+  <si>
+    <t>answering_for_self</t>
+  </si>
+  <si>
+    <t>shortness_of_breath</t>
+  </si>
+  <si>
+    <t>days_short_of_breath</t>
+  </si>
+  <si>
+    <t>month_short_of_breath</t>
+  </si>
+  <si>
+    <t>cough</t>
+  </si>
+  <si>
+    <t>cough_frequency</t>
+  </si>
+  <si>
+    <t>dry_cough</t>
+  </si>
+  <si>
+    <t>productive_cough</t>
+  </si>
+  <si>
+    <t>sore_throat</t>
+  </si>
+  <si>
+    <t>days_sore_throat</t>
+  </si>
+  <si>
+    <t>month_sore_throat</t>
+  </si>
+  <si>
+    <t>answering_self_95</t>
+  </si>
+  <si>
+    <t>stuffy_nose</t>
+  </si>
+  <si>
+    <t>days_stuffy_nose</t>
+  </si>
+  <si>
+    <t>month_stuffy_nose</t>
+  </si>
+  <si>
+    <t>fever</t>
+  </si>
+  <si>
+    <t>days_fever</t>
+  </si>
+  <si>
+    <t>month_fever</t>
+  </si>
+  <si>
+    <t>eye_problem</t>
+  </si>
+  <si>
+    <t>days_eye_problem</t>
+  </si>
+  <si>
+    <t>month_eye_problem</t>
+  </si>
+  <si>
+    <t>where_medical_attention</t>
+  </si>
+  <si>
+    <t>injury_faced</t>
+  </si>
+  <si>
+    <t>days_absent</t>
+  </si>
+  <si>
+    <t>diagnosis</t>
+  </si>
+  <si>
+    <t>diagnosis_by_whom</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>auxillaryHash</t>
+  </si>
+  <si>
+    <t>Section2_names</t>
+  </si>
+  <si>
+    <t>Section2_other_info</t>
+  </si>
+  <si>
+    <t>Section3</t>
+  </si>
+  <si>
+    <t>Section4</t>
+  </si>
+  <si>
+    <t>Section5</t>
+  </si>
+  <si>
+    <t>Section82</t>
+  </si>
+  <si>
+    <t>Section82 p2</t>
+  </si>
+  <si>
+    <t>Section82 p3</t>
+  </si>
+  <si>
+    <t>Section82 p4</t>
+  </si>
+  <si>
+    <t>Section82 p5</t>
+  </si>
+  <si>
+    <t>Section91</t>
+  </si>
+  <si>
+    <t>Section91 p2</t>
+  </si>
+  <si>
+    <t>Section93</t>
+  </si>
+  <si>
+    <t>Section93 p2</t>
+  </si>
+  <si>
+    <t>Section94</t>
+  </si>
+  <si>
+    <t>Section95</t>
+  </si>
+  <si>
+    <t>goes to the finalize screen instead of just automatically finalizing</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>the required column accepts a javascript expression that evaluates to true or false. A blank cell defaults to false. If true, the form cannot be submitted unless it is answered and the user cannot progress to the next question</t>
+  </si>
+  <si>
+    <t>When using required with prompts nested in if statements, instead of simply writing true, copy the condition for the if statement</t>
+  </si>
+  <si>
+    <t>constraint</t>
+  </si>
+  <si>
+    <t>constraint_message</t>
+  </si>
+  <si>
+    <t>data('age') &gt;= 0</t>
+  </si>
+  <si>
+    <t>Age cannot be negative</t>
+  </si>
+  <si>
+    <t>data('months_away') &gt;= 0 &amp;&amp; data('months_away') &lt;= 12</t>
+  </si>
+  <si>
+    <t>Answer must be between 0 and 12</t>
+  </si>
+  <si>
+    <t>constraint is used to make sure legal values are entered. In this case, the answer to age cannot be negative. If it is, when the user tries to move on the constraint message will be displayed</t>
+  </si>
+  <si>
+    <t>Section 2</t>
   </si>
 </sst>
 </file>
@@ -493,15 +697,123 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -509,22 +821,127 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -854,36 +1271,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="19.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" s="41" customFormat="1">
+      <c r="A1" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="41" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="41" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="B3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C3" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="B3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C3" t="s">
-        <v>142</v>
+      <c r="D3" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -899,195 +1325,228 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="2" width="15.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14" style="1" customWidth="1"/>
-    <col min="6" max="6" width="26.83203125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="30.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="15.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14" style="1" customWidth="1"/>
+    <col min="7" max="7" width="26.83203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" style="1"/>
+    <col min="9" max="9" width="17.83203125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" s="42" customFormat="1" ht="30">
+      <c r="A1" s="42" t="s">
+        <v>201</v>
+      </c>
+      <c r="B1" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="30">
-      <c r="C2" s="1" t="s">
-        <v>14</v>
+      <c r="I1" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="J1" s="42" t="s">
+        <v>204</v>
+      </c>
+      <c r="K1" s="42" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="105">
+      <c r="A2" s="1" t="s">
+        <v>202</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="H2" s="1" t="b">
+      <c r="G2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I2" s="1" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="C3" s="1" t="s">
-        <v>14</v>
-      </c>
+    <row r="3" spans="1:11">
       <c r="D3" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="H3" s="1" t="b">
+        <v>18</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I3" s="1" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="C4" s="1" t="s">
+    <row r="4" spans="1:11" ht="90">
+      <c r="A4" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="53" customFormat="1" ht="16" customHeight="1">
+      <c r="B5" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="53" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="53" customFormat="1" ht="69" customHeight="1">
+      <c r="A6" s="53" t="s">
+        <v>203</v>
+      </c>
+      <c r="D6" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="53" t="s">
         <v>118</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1" t="s">
+      <c r="I6" s="54" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="53" customFormat="1" ht="16" customHeight="1">
+      <c r="B7" s="53" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="48" customFormat="1">
+      <c r="B8" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="30">
-      <c r="C6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="C8" s="48" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="48" customFormat="1" ht="64" customHeight="1">
+      <c r="D9" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9" s="48" t="s">
         <v>119</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1" t="s">
+      <c r="H9" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="J9" s="48" t="s">
+        <v>208</v>
+      </c>
+      <c r="K9" s="48" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="48" customFormat="1">
+      <c r="B10" s="48" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1" t="s">
+    <row r="11" spans="1:11" ht="30">
+      <c r="D11" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="45" customFormat="1">
+      <c r="B12" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C12" s="45" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="64" customHeight="1">
-      <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="30">
-      <c r="C11" s="1" t="s">
+    <row r="13" spans="1:11" s="45" customFormat="1" ht="30">
+      <c r="D13" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F11" s="1" t="s">
+      <c r="E13" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="G13" s="45" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="30">
-      <c r="C13" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:11" s="45" customFormat="1">
+      <c r="B14" s="45" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1107,7 +1566,7 @@
   <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1116,432 +1575,432 @@
     <col min="2" max="2" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" s="41" customFormat="1">
+      <c r="A1" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="41" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3" s="33" customFormat="1">
+      <c r="A2" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="33" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:3" s="33" customFormat="1">
+      <c r="A3" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="33" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:3" s="33" customFormat="1">
+      <c r="A4" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="33" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
+    <row r="5" spans="1:3" s="33" customFormat="1">
+      <c r="A5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="33" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
+    <row r="6" spans="1:3" s="33" customFormat="1">
+      <c r="A6" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="33" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
+    <row r="7" spans="1:3" s="33" customFormat="1">
+      <c r="A7" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="33" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
+    <row r="8" spans="1:3" s="33" customFormat="1">
+      <c r="A8" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="33" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
+    <row r="9" spans="1:3" s="33" customFormat="1">
+      <c r="A9" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="33" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
+    <row r="10" spans="1:3" s="33" customFormat="1">
+      <c r="A10" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="33" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
+    <row r="11" spans="1:3" s="33" customFormat="1">
+      <c r="A11" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="33" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
+    <row r="12" spans="1:3" s="33" customFormat="1">
+      <c r="A12" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="33" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
+    <row r="13" spans="1:3" s="33" customFormat="1">
+      <c r="A13" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="33" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
+    <row r="14" spans="1:3" s="33" customFormat="1">
+      <c r="A14" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="33" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+    <row r="15" spans="1:3" s="33" customFormat="1">
+      <c r="A15" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="33" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
+    <row r="16" spans="1:3" s="33" customFormat="1">
+      <c r="A16" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="33" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
+    <row r="17" spans="1:3" s="16" customFormat="1">
+      <c r="A17" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="16" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
+    <row r="18" spans="1:3" s="16" customFormat="1">
+      <c r="A18" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="16" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
+    <row r="19" spans="1:3" s="6" customFormat="1">
+      <c r="A19" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
+    <row r="20" spans="1:3" s="6" customFormat="1">
+      <c r="A20" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="6" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
+    <row r="21" spans="1:3" s="6" customFormat="1">
+      <c r="A21" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
+    <row r="22" spans="1:3" s="6" customFormat="1">
+      <c r="A22" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="6" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
+    <row r="23" spans="1:3" s="6" customFormat="1">
+      <c r="A23" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="6" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
+    <row r="24" spans="1:3" s="19" customFormat="1">
+      <c r="A24" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="19" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
+    <row r="25" spans="1:3" s="19" customFormat="1">
+      <c r="A25" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="19" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
+    <row r="26" spans="1:3" s="19" customFormat="1">
+      <c r="A26" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="19" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
+    <row r="27" spans="1:3" s="19" customFormat="1">
+      <c r="A27" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="19" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
+    <row r="28" spans="1:3" s="19" customFormat="1">
+      <c r="A28" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="19" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
+    <row r="29" spans="1:3" s="19" customFormat="1">
+      <c r="A29" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="19" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
+    <row r="30" spans="1:3" s="19" customFormat="1">
+      <c r="A30" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
+    <row r="31" spans="1:3" s="19" customFormat="1">
+      <c r="A31" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="19" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
+    <row r="32" spans="1:3" s="19" customFormat="1">
+      <c r="A32" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="19" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
+    <row r="33" spans="1:3" s="19" customFormat="1">
+      <c r="A33" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="19" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
+    <row r="34" spans="1:3" s="47" customFormat="1">
+      <c r="A34" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="47" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
+    <row r="35" spans="1:3" s="47" customFormat="1">
+      <c r="A35" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="47" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s">
+    <row r="36" spans="1:3" s="47" customFormat="1">
+      <c r="A36" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="48" t="s">
         <v>91</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="47" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
-      <c r="A37" t="s">
+    <row r="37" spans="1:3" s="47" customFormat="1">
+      <c r="A37" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="47" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
-      <c r="A38" t="s">
+    <row r="38" spans="1:3" s="47" customFormat="1">
+      <c r="A38" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="47" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
-      <c r="A39" t="s">
+    <row r="39" spans="1:3" s="47" customFormat="1">
+      <c r="A39" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="47" t="s">
         <v>110</v>
       </c>
     </row>
@@ -1560,7 +2019,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1568,14 +2027,14 @@
     <col min="1" max="1" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" s="49" customFormat="1">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="49" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1584,7 +2043,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1592,7 +2051,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1600,7 +2059,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>112</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1623,163 +2082,634 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:C64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:B18"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="18.1640625" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="3" max="3" width="28.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" s="52" customFormat="1">
+      <c r="A1" s="50" t="s">
+        <v>182</v>
+      </c>
+      <c r="B1" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="51" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
+      <c r="C3" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="6"/>
+      <c r="B6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="6"/>
+      <c r="B10" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="8"/>
+      <c r="B12" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
+      <c r="C12" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
+      <c r="C13" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="8"/>
+      <c r="B14" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
+      <c r="C14" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="8"/>
+      <c r="B15" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
+      <c r="C15" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="8"/>
+      <c r="B16" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
+      <c r="C16" s="9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="8"/>
+      <c r="B17" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="B9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
+      <c r="C17" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="13"/>
+      <c r="B20" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="13"/>
+      <c r="B21" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="13"/>
+      <c r="B22" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="13"/>
+      <c r="B23" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="16"/>
+      <c r="B25" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="16"/>
+      <c r="B26" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="B29" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="C29" s="27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="B30" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="B31" s="32" t="s">
+        <v>177</v>
+      </c>
+      <c r="C31" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="2" t="s">
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="B32" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="C32" s="34" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="33"/>
+      <c r="B33" s="34" t="s">
+        <v>179</v>
+      </c>
+      <c r="C33" s="34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="33"/>
+      <c r="B34" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="C34" s="34" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="33"/>
+      <c r="B35" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="C35" s="34" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="B36" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="C36" s="36" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="37" t="s">
+        <v>197</v>
+      </c>
+      <c r="B37" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="2" t="s">
+      <c r="C37" s="38" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="37"/>
+      <c r="B38" s="38" t="s">
         <v>134</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C38" s="38" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="37"/>
+      <c r="B39" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="C39" s="38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="37"/>
+      <c r="B40" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="C40" s="38" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="37"/>
+      <c r="B41" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="C41" s="38" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="37"/>
+      <c r="B42" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="C42" s="38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="37"/>
+      <c r="B43" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="C43" s="38" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="C44" s="15" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B14" s="2" t="s">
+    <row r="45" spans="1:3">
+      <c r="A45" s="13"/>
+      <c r="B45" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="13"/>
+      <c r="B46" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="C46" s="15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B17" s="2" t="s">
+    <row r="47" spans="1:3">
+      <c r="A47" s="13"/>
+      <c r="B47" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="13"/>
+      <c r="B48" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="13"/>
+      <c r="B49" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="13"/>
+      <c r="B50" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="13"/>
+      <c r="B51" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="13"/>
+      <c r="B52" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="13"/>
+      <c r="B53" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="C53" s="15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B18" s="2" t="s">
+    <row r="54" spans="1:3">
+      <c r="A54" s="13"/>
+      <c r="B54" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="39" t="s">
+        <v>199</v>
+      </c>
+      <c r="B55" s="40" t="s">
+        <v>167</v>
+      </c>
+      <c r="C55" s="40" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="39"/>
+      <c r="B56" s="40" t="s">
+        <v>168</v>
+      </c>
+      <c r="C56" s="40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="39"/>
+      <c r="B57" s="40" t="s">
+        <v>169</v>
+      </c>
+      <c r="C57" s="40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="39"/>
+      <c r="B58" s="40" t="s">
+        <v>170</v>
+      </c>
+      <c r="C58" s="40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="39"/>
+      <c r="B59" s="40" t="s">
+        <v>171</v>
+      </c>
+      <c r="C59" s="40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="39"/>
+      <c r="B60" s="40" t="s">
+        <v>172</v>
+      </c>
+      <c r="C60" s="40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="39"/>
+      <c r="B61" s="40" t="s">
+        <v>173</v>
+      </c>
+      <c r="C61" s="40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="39"/>
+      <c r="B62" s="40" t="s">
+        <v>174</v>
+      </c>
+      <c r="C62" s="40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="39"/>
+      <c r="B63" s="40" t="s">
+        <v>175</v>
+      </c>
+      <c r="C63" s="40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="39"/>
+      <c r="B64" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="C64" s="40" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
